--- a/Tracking/Portfolio_tracking/futures_options_position_tracking/product_money_changing.xlsx
+++ b/Tracking/Portfolio_tracking/futures_options_position_tracking/product_money_changing.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Tracking\Portfolio_tracking\futures_options_position_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDD7441-F8F5-45AB-B210-3A5750683104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE449FF3-558C-4A74-957E-43C330FBBA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17415" yWindow="5250" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,7 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SY</t>
+    <t>RRJX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,6 +429,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
